--- a/cpsLIB/CPS_protokoll.xlsx
+++ b/cpsLIB/CPS_protokoll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Frame" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,9 +19,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">JOB!$B$2:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">JOB!$B$2:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">JOB!$B$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">JOB!$B$2:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">ID!$A$1:$D$73</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">ID!$A$1:$D$73</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ID!$A$1:$D$73</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">ID!$A$1:$D$73</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="199">
   <si>
     <t xml:space="preserve">Int[]</t>
   </si>
@@ -68,7 +70,25 @@
     <t xml:space="preserve">Array[0..13] of Int</t>
   </si>
   <si>
+    <t xml:space="preserve">HeaderFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data[1]</t>
+  </si>
+  <si>
     <t xml:space="preserve">data[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PdataIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface Nr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JobType</t>
   </si>
   <si>
     <t xml:space="preserve">data[1]</t>
@@ -621,7 +641,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -655,6 +675,12 @@
     <font>
       <sz val="9.5"/>
       <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
@@ -701,7 +727,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -715,6 +741,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -743,20 +773,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,16 +842,34 @@
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
@@ -840,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
@@ -851,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
@@ -862,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>4</v>
@@ -873,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
@@ -884,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>4</v>
@@ -895,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>4</v>
@@ -906,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>4</v>
@@ -917,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
@@ -928,7 +976,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
@@ -939,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>4</v>
@@ -950,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>4</v>
@@ -961,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>4</v>
@@ -969,29 +1017,29 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1970</v>
@@ -999,10 +1047,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1</v>
@@ -1010,10 +1058,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1</v>
@@ -1021,10 +1069,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>5</v>
@@ -1032,10 +1080,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
@@ -1043,10 +1091,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
@@ -1054,10 +1102,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
@@ -1065,7 +1113,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>4</v>
@@ -1074,12 +1122,12 @@
         <v>0</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>4</v>
@@ -1088,46 +1136,46 @@
         <v>0</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1152,362 +1200,362 @@
   <dimension ref="B2:P18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1536,38 +1584,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>5</v>
@@ -1575,13 +1623,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -1589,30 +1637,30 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>8</v>
@@ -1620,13 +1668,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>10</v>
@@ -1634,13 +1682,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>11</v>
@@ -1648,13 +1696,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>30</v>
@@ -1662,13 +1710,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>31</v>
@@ -1676,13 +1724,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>32</v>
@@ -1690,13 +1738,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>33</v>
@@ -1704,13 +1752,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>34</v>
@@ -1718,13 +1766,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>35</v>
@@ -1732,13 +1780,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>36</v>
@@ -1746,13 +1794,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>37</v>
@@ -1760,13 +1808,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>38</v>
@@ -1774,13 +1822,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>39</v>
@@ -1788,13 +1836,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>40</v>
@@ -1802,13 +1850,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>41</v>
@@ -1816,13 +1864,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>50</v>
@@ -1830,13 +1878,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>51</v>
@@ -1844,13 +1892,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>52</v>
@@ -1858,13 +1906,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>53</v>
@@ -1872,13 +1920,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>54</v>
@@ -1886,13 +1934,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>55</v>
@@ -1900,13 +1948,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>56</v>
@@ -1914,13 +1962,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>57</v>
@@ -1928,13 +1976,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>58</v>
@@ -1942,13 +1990,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>59</v>
@@ -1956,13 +2004,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>60</v>
@@ -1970,13 +2018,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>61</v>
@@ -1984,13 +2032,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>62</v>
@@ -1998,13 +2046,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>63</v>
@@ -2012,13 +2060,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>64</v>
@@ -2026,13 +2074,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>65</v>
@@ -2040,13 +2088,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>66</v>
@@ -2054,13 +2102,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>67</v>
@@ -2068,13 +2116,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>68</v>
@@ -2082,13 +2130,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>69</v>
@@ -2096,13 +2144,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>70</v>
@@ -2110,13 +2158,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>71</v>
@@ -2124,13 +2172,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>72</v>
@@ -2138,13 +2186,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>73</v>
@@ -2152,13 +2200,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>100</v>
@@ -2166,13 +2214,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>101</v>
@@ -2180,13 +2228,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>102</v>
@@ -2194,13 +2242,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>103</v>
@@ -2208,13 +2256,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>104</v>
@@ -2222,13 +2270,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>105</v>
@@ -2236,13 +2284,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>106</v>
@@ -2250,13 +2298,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>107</v>
@@ -2264,13 +2312,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>108</v>
@@ -2278,13 +2326,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>109</v>
@@ -2292,13 +2340,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>110</v>
@@ -2306,13 +2354,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>111</v>
@@ -2320,13 +2368,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>112</v>
@@ -2334,13 +2382,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>113</v>
@@ -2348,13 +2396,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>150</v>
@@ -2362,13 +2410,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>151</v>
@@ -2376,13 +2424,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>152</v>
@@ -2390,13 +2438,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>153</v>
@@ -2404,13 +2452,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>154</v>
@@ -2418,13 +2466,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>155</v>
@@ -2432,13 +2480,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>156</v>
@@ -2446,13 +2494,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>157</v>
@@ -2460,13 +2508,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>158</v>
@@ -2474,13 +2522,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>159</v>
@@ -2488,13 +2536,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>160</v>
@@ -2502,13 +2550,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>161</v>
@@ -2516,13 +2564,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>162</v>
@@ -2530,13 +2578,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>163</v>
@@ -2544,13 +2592,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>164</v>
@@ -2558,13 +2606,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>165</v>
@@ -2596,7 +2644,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
